--- a/test_b.xlsx
+++ b/test_b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huyunan\git\excel-diff-yu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7304BC-2AEE-4F89-877C-A21B3C627EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635956E3-90BC-455F-A285-81084AE31B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,12 +148,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,89 +452,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
